--- a/results/case1/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1/data_uniquie_case1_consq_recipe.xlsx
@@ -106,6 +106,9 @@
     <t>'market for electricity, high voltage' (kilowatt hour, DK, None)</t>
   </si>
   <si>
+    <t>'market for polyethylene, high density, granulate' (kilogram, GLO, None)</t>
+  </si>
+  <si>
     <t>'market for polypropylene, granulate' (kilogram, GLO, None)</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>'polyethylene recycling' (kilogram, Europe without Switzerland, None)</t>
-  </si>
-  <si>
-    <t>'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)</t>
   </si>
   <si>
     <t>'polypropylene recycling' (kilogram, Europe without Switzerland, None)</t>
@@ -1188,67 +1188,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>0.004640164257204156</v>
+        <v>0.004780964428664707</v>
       </c>
       <c r="C11">
-        <v>2.136862488909907</v>
+        <v>2.178995772398841</v>
       </c>
       <c r="D11">
-        <v>0.03628000028378839</v>
+        <v>0.03811096834117705</v>
       </c>
       <c r="E11">
-        <v>0.04922741955003975</v>
+        <v>0.05165170234992822</v>
       </c>
       <c r="F11">
-        <v>5.981469740509641</v>
+        <v>6.356138656457438</v>
       </c>
       <c r="G11">
-        <v>1.655948788260299</v>
+        <v>1.625557051266231</v>
       </c>
       <c r="H11">
-        <v>0.0002268687800751981</v>
+        <v>0.000256246225486931</v>
       </c>
       <c r="I11">
-        <v>2.661409641231836E-05</v>
+        <v>2.846230647974657E-05</v>
       </c>
       <c r="J11">
-        <v>0.04953876717118589</v>
+        <v>0.0662684010889243</v>
       </c>
       <c r="K11">
-        <v>0.8264105003864151</v>
+        <v>0.8811122833028787</v>
       </c>
       <c r="L11">
-        <v>0.03176549738427047</v>
+        <v>0.0394065805001305</v>
       </c>
       <c r="M11">
-        <v>0.02394491338612041</v>
+        <v>0.0248807087620809</v>
       </c>
       <c r="N11">
-        <v>0.002175076599573081</v>
+        <v>0.001691993626179662</v>
       </c>
       <c r="O11">
-        <v>1.604287258209714E-07</v>
+        <v>3.273022414824639E-07</v>
       </c>
       <c r="P11">
-        <v>0.001995633389876196</v>
+        <v>0.002113792908535577</v>
       </c>
       <c r="Q11">
-        <v>0.004134858989042472</v>
+        <v>0.004469588985615377</v>
       </c>
       <c r="R11">
-        <v>0.004473835881807333</v>
+        <v>0.004864475231934324</v>
       </c>
       <c r="S11">
-        <v>0.01576991021190884</v>
+        <v>0.01792902228838943</v>
       </c>
       <c r="T11">
-        <v>8.009723894731634E-09</v>
+        <v>8.241577755156163E-09</v>
       </c>
       <c r="U11">
-        <v>3.628826852804045E-06</v>
+        <v>3.815500270059231E-06</v>
       </c>
       <c r="V11">
-        <v>0.674805453725397</v>
+        <v>0.6571808939483792</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1256,67 +1256,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.008446596707769542</v>
+        <v>0.004640164257204156</v>
       </c>
       <c r="C12">
-        <v>0.815228456360286</v>
+        <v>2.136862488909907</v>
       </c>
       <c r="D12">
-        <v>0.5096466953040195</v>
+        <v>0.03628000028378839</v>
       </c>
       <c r="E12">
-        <v>0.6197107015169703</v>
+        <v>0.04922741955003975</v>
       </c>
       <c r="F12">
-        <v>34.2486057740574</v>
+        <v>5.981469740509641</v>
       </c>
       <c r="G12">
-        <v>0.1986025974830219</v>
+        <v>1.655948788260299</v>
       </c>
       <c r="H12">
-        <v>0.0004588961559176248</v>
+        <v>0.0002268687800751981</v>
       </c>
       <c r="I12">
-        <v>0.001235671649438281</v>
+        <v>2.661409641231836E-05</v>
       </c>
       <c r="J12">
-        <v>0.1042438594022531</v>
+        <v>0.04953876717118589</v>
       </c>
       <c r="K12">
-        <v>4.278608295955717</v>
+        <v>0.8264105003864151</v>
       </c>
       <c r="L12">
-        <v>0.01762965201175954</v>
+        <v>0.03176549738427047</v>
       </c>
       <c r="M12">
-        <v>2.822853490428654</v>
+        <v>0.02394491338612041</v>
       </c>
       <c r="N12">
-        <v>0.00206328199152455</v>
+        <v>0.002175076599573081</v>
       </c>
       <c r="O12">
-        <v>1.92976447189042E-06</v>
+        <v>1.604287258209714E-07</v>
       </c>
       <c r="P12">
-        <v>0.003115942813939591</v>
+        <v>0.001995633389876196</v>
       </c>
       <c r="Q12">
-        <v>0.007495162184330682</v>
+        <v>0.004134858989042472</v>
       </c>
       <c r="R12">
-        <v>0.007669981652109052</v>
+        <v>0.004473835881807333</v>
       </c>
       <c r="S12">
-        <v>0.008047584352144034</v>
+        <v>0.01576991021190884</v>
       </c>
       <c r="T12">
-        <v>3.121155956237511E-08</v>
+        <v>8.009723894731634E-09</v>
       </c>
       <c r="U12">
-        <v>4.062328188979117E-06</v>
+        <v>3.628826852804045E-06</v>
       </c>
       <c r="V12">
-        <v>0.05658618613364935</v>
+        <v>0.674805453725397</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1324,67 +1324,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>-0.0003588602513028819</v>
+        <v>0.008446596707769542</v>
       </c>
       <c r="C13">
-        <v>-0.164736902452689</v>
+        <v>0.815228456360286</v>
       </c>
       <c r="D13">
-        <v>-0.03997487659752688</v>
+        <v>0.5096466953040195</v>
       </c>
       <c r="E13">
-        <v>-0.05149222026510712</v>
+        <v>0.6197107015169703</v>
       </c>
       <c r="F13">
-        <v>-1.249387379181892</v>
+        <v>34.2486057740574</v>
       </c>
       <c r="G13">
-        <v>-0.04853409509748567</v>
+        <v>0.1986025974830219</v>
       </c>
       <c r="H13">
-        <v>-5.554678333371759E-05</v>
+        <v>0.0004588961559176248</v>
       </c>
       <c r="I13">
-        <v>-3.397164156191627E-05</v>
+        <v>0.001235671649438281</v>
       </c>
       <c r="J13">
-        <v>-0.009524399766270919</v>
+        <v>0.1042438594022531</v>
       </c>
       <c r="K13">
-        <v>-0.6402985349461096</v>
+        <v>4.278608295955717</v>
       </c>
       <c r="L13">
-        <v>-0.0321966401626624</v>
+        <v>0.01762965201175954</v>
       </c>
       <c r="M13">
-        <v>-0.009609948754425314</v>
+        <v>2.822853490428654</v>
       </c>
       <c r="N13">
-        <v>-0.0002753878589426062</v>
+        <v>0.00206328199152455</v>
       </c>
       <c r="O13">
-        <v>-9.526177450270188E-08</v>
+        <v>1.92976447189042E-06</v>
       </c>
       <c r="P13">
-        <v>-0.0002486555642587736</v>
+        <v>0.003115942813939591</v>
       </c>
       <c r="Q13">
-        <v>-0.0002489437928670701</v>
+        <v>0.007495162184330682</v>
       </c>
       <c r="R13">
-        <v>-0.0002687332815707684</v>
+        <v>0.007669981652109052</v>
       </c>
       <c r="S13">
-        <v>-0.0009053003302163463</v>
+        <v>0.008047584352144034</v>
       </c>
       <c r="T13">
-        <v>-7.41952987573696E-10</v>
+        <v>3.121155956237511E-08</v>
       </c>
       <c r="U13">
-        <v>-4.893985764087618E-07</v>
+        <v>4.062328188979117E-06</v>
       </c>
       <c r="V13">
-        <v>-0.01596443581007563</v>
+        <v>0.05658618613364935</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1392,67 +1392,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.004780964428664707</v>
+        <v>-0.0003588602513028819</v>
       </c>
       <c r="C14">
-        <v>2.178995772398841</v>
+        <v>-0.164736902452689</v>
       </c>
       <c r="D14">
-        <v>0.03811096834117705</v>
+        <v>-0.03997487659752688</v>
       </c>
       <c r="E14">
-        <v>0.05165170234992822</v>
+        <v>-0.05149222026510712</v>
       </c>
       <c r="F14">
-        <v>6.356138656457438</v>
+        <v>-1.249387379181892</v>
       </c>
       <c r="G14">
-        <v>1.625557051266231</v>
+        <v>-0.04853409509748567</v>
       </c>
       <c r="H14">
-        <v>0.000256246225486931</v>
+        <v>-5.554678333371759E-05</v>
       </c>
       <c r="I14">
-        <v>2.846230647974657E-05</v>
+        <v>-3.397164156191627E-05</v>
       </c>
       <c r="J14">
-        <v>0.0662684010889243</v>
+        <v>-0.009524399766270919</v>
       </c>
       <c r="K14">
-        <v>0.8811122833028787</v>
+        <v>-0.6402985349461096</v>
       </c>
       <c r="L14">
-        <v>0.0394065805001305</v>
+        <v>-0.0321966401626624</v>
       </c>
       <c r="M14">
-        <v>0.0248807087620809</v>
+        <v>-0.009609948754425314</v>
       </c>
       <c r="N14">
-        <v>0.001691993626179662</v>
+        <v>-0.0002753878589426062</v>
       </c>
       <c r="O14">
-        <v>3.273022414824639E-07</v>
+        <v>-9.526177450270188E-08</v>
       </c>
       <c r="P14">
-        <v>0.002113792908535577</v>
+        <v>-0.0002486555642587736</v>
       </c>
       <c r="Q14">
-        <v>0.004469588985615377</v>
+        <v>-0.0002489437928670701</v>
       </c>
       <c r="R14">
-        <v>0.004864475231934324</v>
+        <v>-0.0002687332815707684</v>
       </c>
       <c r="S14">
-        <v>0.01792902228838943</v>
+        <v>-0.0009053003302163463</v>
       </c>
       <c r="T14">
-        <v>8.241577755156163E-09</v>
+        <v>-7.41952987573696E-10</v>
       </c>
       <c r="U14">
-        <v>3.815500270059231E-06</v>
+        <v>-4.893985764087618E-07</v>
       </c>
       <c r="V14">
-        <v>0.6571808939483792</v>
+        <v>-0.01596443581007563</v>
       </c>
     </row>
     <row r="15" spans="1:22">
